--- a/data/georgia_census/kakheti/dedofliswyaro/age_dependency.xlsx
+++ b/data/georgia_census/kakheti/dedofliswyaro/age_dependency.xlsx
@@ -1007,13 +1007,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8375D4FC-BDA6-4790-9BA7-6E464E0E20C6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CAC432C-BC5F-46A6-87EF-23F5B8296FD1}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B59FA95-C16B-4F3B-8561-95B1594A85EC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EAB2016-8D65-496A-A1C6-8B8E0C1EFC75}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70FAB32D-554D-4BFF-B408-C7FDEF3A782C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{364DDE91-BF36-4B7B-96CE-94001FBB0F11}"/>
 </file>